--- a/risultato/FASCIA D - BLUMARRONE-MARRONE POOL-2.xlsx
+++ b/risultato/FASCIA D - BLUMARRONE-MARRONE POOL-2.xlsx
@@ -574,7 +574,7 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
@@ -583,12 +583,12 @@
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>CASAGRANDE</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>EDEN</t>
+          <t>SALIMATOU</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>SEMENZIN</t>
+          <t>DAMETTO</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>GIULIA</t>
+          <t>PIETRO</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,21 +628,21 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>FASSINA</t>
+          <t>FANTON</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>FRANCESCO</t>
+          <t>EMMA</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -655,21 +655,21 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="10" t="n">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>FANTON</t>
+          <t>CASAGRANDE</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>EMMA</t>
+          <t>EDEN</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr"/>
@@ -682,7 +682,7 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
@@ -691,12 +691,12 @@
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>DAMETTO</t>
+          <t>FASSINA</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>PIETRO</t>
+          <t>FRANCESCO</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
@@ -709,21 +709,21 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="n">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>SEMENZIN</t>
         </is>
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>SALIMATOU</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr"/>

--- a/risultato/FASCIA D - BLUMARRONE-MARRONE POOL-2.xlsx
+++ b/risultato/FASCIA D - BLUMARRONE-MARRONE POOL-2.xlsx
@@ -574,7 +574,7 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
@@ -583,12 +583,12 @@
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>FASSINA</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>SALIMATOU</t>
+          <t>FRANCESCO</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>DAMETTO</t>
+          <t>FANTON</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>PIETRO</t>
+          <t>EMMA</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,21 +628,21 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>FANTON</t>
+          <t>CASAGRANDE</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>EMMA</t>
+          <t>EDEN</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -655,21 +655,21 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="10" t="n">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>CASAGRANDE</t>
+          <t>SEMENZIN</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>EDEN</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr"/>
@@ -682,7 +682,7 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
@@ -691,12 +691,12 @@
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>FASSINA</t>
+          <t>DAMETTO</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>FRANCESCO</t>
+          <t>PIETRO</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
@@ -709,21 +709,21 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="n">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
         <is>
-          <t>SEMENZIN</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="D9" s="11" t="inlineStr">
         <is>
-          <t>GIULIA</t>
+          <t>SALIMATOU</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr"/>

--- a/risultato/FASCIA D - BLUMARRONE-MARRONE POOL-2.xlsx
+++ b/risultato/FASCIA D - BLUMARRONE-MARRONE POOL-2.xlsx
@@ -574,21 +574,21 @@
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="6" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B4" s="7" t="inlineStr">
         <is>
-          <t>SCUOLA KARATE RESANA ASD</t>
+          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
         </is>
       </c>
       <c r="C4" s="7" t="inlineStr">
         <is>
-          <t>FASSINA</t>
+          <t>FANTON</t>
         </is>
       </c>
       <c r="D4" s="7" t="inlineStr">
         <is>
-          <t>FRANCESCO</t>
+          <t>EMMA</t>
         </is>
       </c>
       <c r="E4" s="7" t="inlineStr"/>
@@ -601,21 +601,21 @@
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="10" t="n">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>KARATE SHOTOKAN BADOERE MORGANO A.S.D.</t>
+          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>FANTON</t>
+          <t>SEMENZIN</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr">
         <is>
-          <t>EMMA</t>
+          <t>GIULIA</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr"/>
@@ -628,7 +628,7 @@
     </row>
     <row r="6" ht="30" customHeight="1">
       <c r="A6" s="6" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
@@ -637,12 +637,12 @@
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>CASAGRANDE</t>
+          <t>FASSINA</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>EDEN</t>
+          <t>FRANCESCO</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr"/>
@@ -655,21 +655,21 @@
     </row>
     <row r="7" ht="30" customHeight="1">
       <c r="A7" s="10" t="n">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>ASD KARATE TREVIGNANO &amp; MONTEBELLUNA</t>
+          <t>SCUOLA KARATE RESANA ASD</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
         <is>
-          <t>SEMENZIN</t>
+          <t>CASAGRANDE</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>GIULIA</t>
+          <t>EDEN</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr"/>
@@ -682,7 +682,7 @@
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="6" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
